--- a/UCM Environment (version 1).xlsx
+++ b/UCM Environment (version 1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prasad\git\Spoon-Knife\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
   <si>
     <t>Weblogic: prd-dms-app-001.oaifield.onasgn.com:7001</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Console:</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1449,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="B6:L6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1631,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
